--- a/data/validation/test_variety_noted.xlsx
+++ b/data/validation/test_variety_noted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\OneDrive\Work_temp\Insight\Git_Workspace\scripts\final_model_development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\OneDrive\Work_temp\Insight\Git_Workspace\data\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2558,10 +2558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,7 +3079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>546</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>597</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1476</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>527</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>482</v>
       </c>
@@ -3244,8 +3244,11 @@
       <c r="M21" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>615</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>601</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1478</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>543</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>531</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2115</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>643</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>619</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>618</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>688</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>578</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2137</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>124</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2668</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2699</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>242</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2365</v>
       </c>
@@ -3794,8 +3797,11 @@
       <c r="M38" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N38" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>196</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2309</v>
       </c>
@@ -3859,7 +3865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>746</v>
       </c>
@@ -3891,7 +3897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1301</v>
       </c>
@@ -3928,8 +3934,11 @@
       <c r="M42" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2507</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2440</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>997</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2545</v>
       </c>
@@ -4077,8 +4086,11 @@
       <c r="N46" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1027</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1612</v>
       </c>
@@ -4142,7 +4154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2143</v>
       </c>
@@ -4174,7 +4186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1604</v>
       </c>
@@ -4214,8 +4226,11 @@
       <c r="N50" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2726</v>
       </c>
@@ -4247,7 +4262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>295</v>
       </c>
@@ -4285,7 +4300,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2372</v>
       </c>
@@ -4325,8 +4340,11 @@
       <c r="N53" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>224</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2579</v>
       </c>
@@ -4390,7 +4408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2408</v>
       </c>
@@ -4427,8 +4445,11 @@
       <c r="M56" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1109</v>
       </c>
@@ -4466,7 +4487,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>245</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>118</v>
       </c>
@@ -4530,7 +4551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2544</v>
       </c>
@@ -4568,7 +4589,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2075</v>
       </c>
@@ -4600,7 +4621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1224</v>
       </c>
@@ -4638,7 +4659,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>457</v>
       </c>
@@ -4676,7 +4697,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2342</v>
       </c>
@@ -4708,7 +4729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2085</v>
       </c>
@@ -4740,7 +4761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2016</v>
       </c>
@@ -4772,7 +4793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>562</v>
       </c>
@@ -4804,7 +4825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>2705</v>
       </c>
@@ -4842,7 +4863,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>436</v>
       </c>
@@ -4874,7 +4895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1317</v>
       </c>
@@ -4912,7 +4933,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1980</v>
       </c>
@@ -4949,8 +4970,11 @@
       <c r="M71" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2624</v>
       </c>
@@ -4982,7 +5006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2288</v>
       </c>
@@ -5014,7 +5038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>491</v>
       </c>
@@ -5046,7 +5070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2800</v>
       </c>
@@ -5078,7 +5102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2038</v>
       </c>
@@ -5110,7 +5134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2592</v>
       </c>
@@ -5142,7 +5166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2781</v>
       </c>
@@ -5174,7 +5198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2767</v>
       </c>
@@ -5206,7 +5230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2262</v>
       </c>
@@ -7798,7 +7822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>1038</v>
       </c>
@@ -7830,7 +7854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2072</v>
       </c>
@@ -7862,7 +7886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2212</v>
       </c>
@@ -7894,7 +7918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1059</v>
       </c>
@@ -7926,7 +7950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>2582</v>
       </c>
@@ -7958,7 +7982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>1858</v>
       </c>
@@ -7990,7 +8014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>53</v>
       </c>
@@ -8024,8 +8048,11 @@
       <c r="L167" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M167" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>1489</v>
       </c>
@@ -8057,7 +8084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>2101</v>
       </c>
@@ -8092,7 +8119,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>1010</v>
       </c>
@@ -8124,7 +8151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>1236</v>
       </c>
@@ -8156,7 +8183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>217</v>
       </c>
@@ -8188,7 +8215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>15</v>
       </c>
@@ -8220,7 +8247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>2768</v>
       </c>
@@ -8255,7 +8282,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>1520</v>
       </c>
@@ -8287,7 +8314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>1372</v>
       </c>
